--- a/table_overleaf/RQ3-2.xlsx
+++ b/table_overleaf/RQ3-2.xlsx
@@ -438,16 +438,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.5006968550306378</v>
+        <v>0.4994128725784948</v>
       </c>
       <c r="C2">
-        <v>0.4993852945092823</v>
+        <v>0.5021660605706932</v>
       </c>
       <c r="D2">
-        <v>0.5007354487828675</v>
+        <v>0.5016476631000677</v>
       </c>
       <c r="E2">
-        <v>0.503368218329137</v>
+        <v>0.5046594397385881</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -455,16 +455,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.668975235059037</v>
+        <v>0.6715461753318135</v>
       </c>
       <c r="C3">
-        <v>0.6826031902692468</v>
+        <v>0.6853079964951135</v>
       </c>
       <c r="D3">
-        <v>0.7024521818550753</v>
+        <v>0.704155607102944</v>
       </c>
       <c r="E3">
-        <v>0.7060152828646982</v>
+        <v>0.7080123598627511</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -472,16 +472,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.6742457658749764</v>
+        <v>0.6762452894803225</v>
       </c>
       <c r="C4">
-        <v>0.7064100614391903</v>
+        <v>0.7083754211724292</v>
       </c>
       <c r="D4">
-        <v>0.7077399854467795</v>
+        <v>0.7091355544546171</v>
       </c>
       <c r="E4">
-        <v>0.7088431449107495</v>
+        <v>0.7106749912672636</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -489,16 +489,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.6445922758844674</v>
+        <v>0.6460031164849098</v>
       </c>
       <c r="C5">
-        <v>0.6820951827841485</v>
+        <v>0.6834459416415415</v>
       </c>
       <c r="D5">
-        <v>0.6753825261132348</v>
+        <v>0.6766735803967101</v>
       </c>
       <c r="E5">
-        <v>0.6681181746792362</v>
+        <v>0.6703036889837628</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -506,16 +506,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.7571517682793009</v>
+        <v>0.7578373252995153</v>
       </c>
       <c r="C6">
-        <v>0.7526516989980171</v>
+        <v>0.753033380169947</v>
       </c>
       <c r="D6">
-        <v>0.7612495025740061</v>
+        <v>0.7623094019372452</v>
       </c>
       <c r="E6">
-        <v>0.7501506816069927</v>
+        <v>0.750782111089659</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -523,16 +523,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.7579457895525041</v>
+        <v>0.7588313688626652</v>
       </c>
       <c r="C7">
-        <v>0.7610515815829834</v>
+        <v>0.7615567135538042</v>
       </c>
       <c r="D7">
-        <v>0.768915002709988</v>
+        <v>0.7700905208248472</v>
       </c>
       <c r="E7">
-        <v>0.7565414863482353</v>
+        <v>0.7576360298692955</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -540,16 +540,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.7879717610177777</v>
+        <v>0.7894104700219837</v>
       </c>
       <c r="C8">
-        <v>0.782796425008332</v>
+        <v>0.7838217201124836</v>
       </c>
       <c r="D8">
-        <v>0.800716367094062</v>
+        <v>0.8011695429135378</v>
       </c>
       <c r="E8">
-        <v>0.7921650764763319</v>
+        <v>0.7935609223598854</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -557,16 +557,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.7879342614639723</v>
+        <v>0.7893881765748797</v>
       </c>
       <c r="C9">
-        <v>0.7828804447333174</v>
+        <v>0.783922133057799</v>
       </c>
       <c r="D9">
-        <v>0.8007449596554921</v>
+        <v>0.8011996497438938</v>
       </c>
       <c r="E9">
-        <v>0.7921902696010134</v>
+        <v>0.7935882351688355</v>
       </c>
     </row>
   </sheetData>

--- a/table_overleaf/RQ3-2.xlsx
+++ b/table_overleaf/RQ3-2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinghua.li/Documents/Pycharm/NodeRank/table_overleaf/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2099794D-BE59-5D45-B922-8F87D7432BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8920" yWindow="6360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +128,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +214,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +266,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,14 +459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,126 +485,126 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.4994128725784948</v>
+        <v>0.49941287257849482</v>
       </c>
       <c r="C2">
-        <v>0.5021660605706932</v>
+        <v>0.50216606057069324</v>
       </c>
       <c r="D2">
         <v>0.5016476631000677</v>
       </c>
       <c r="E2">
-        <v>0.5046594397385881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.50465943973858807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.6715461753318135</v>
+        <v>0.67154617533181349</v>
       </c>
       <c r="C3">
-        <v>0.6853079964951135</v>
+        <v>0.68530799649511354</v>
       </c>
       <c r="D3">
         <v>0.704155607102944</v>
       </c>
       <c r="E3">
-        <v>0.7080123598627511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.70801235986275113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.6762452894803225</v>
+        <v>0.67624528948032248</v>
       </c>
       <c r="C4">
-        <v>0.7083754211724292</v>
+        <v>0.70837542117242924</v>
       </c>
       <c r="D4">
-        <v>0.7091355544546171</v>
+        <v>0.70913555445461707</v>
       </c>
       <c r="E4">
-        <v>0.7106749912672636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.71067499126726363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.6460031164849098</v>
+        <v>0.64600311648490982</v>
       </c>
       <c r="C5">
-        <v>0.6834459416415415</v>
+        <v>0.68344594164154149</v>
       </c>
       <c r="D5">
-        <v>0.6766735803967101</v>
+        <v>0.67667358039671011</v>
       </c>
       <c r="E5">
         <v>0.6703036889837628</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.7578373252995153</v>
+        <v>0.75783732529951531</v>
       </c>
       <c r="C6">
-        <v>0.753033380169947</v>
+        <v>0.75303338016994703</v>
       </c>
       <c r="D6">
-        <v>0.7623094019372452</v>
+        <v>0.76230940193724517</v>
       </c>
       <c r="E6">
-        <v>0.750782111089659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.75078211108965898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.7588313688626652</v>
+        <v>0.75883136886266522</v>
       </c>
       <c r="C7">
-        <v>0.7615567135538042</v>
+        <v>0.76155671355380417</v>
       </c>
       <c r="D7">
-        <v>0.7700905208248472</v>
+        <v>0.77009052082484719</v>
       </c>
       <c r="E7">
-        <v>0.7576360298692955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.75763602986929546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.7894104700219837</v>
+        <v>0.78941047002198372</v>
       </c>
       <c r="C8">
-        <v>0.7838217201124836</v>
+        <v>0.78382172011248363</v>
       </c>
       <c r="D8">
-        <v>0.8011695429135378</v>
+        <v>0.80116954291353781</v>
       </c>
       <c r="E8">
         <v>0.7935609223598854</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -560,13 +612,13 @@
         <v>0.7893881765748797</v>
       </c>
       <c r="C9">
-        <v>0.783922133057799</v>
+        <v>0.78392213305779901</v>
       </c>
       <c r="D9">
-        <v>0.8011996497438938</v>
+        <v>0.80119964974389379</v>
       </c>
       <c r="E9">
-        <v>0.7935882351688355</v>
+        <v>0.79358823516883548</v>
       </c>
     </row>
   </sheetData>
